--- a/Angle calculations.xlsx
+++ b/Angle calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-1700" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Number of Samples Delayed</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Given the number of samples that the phase of the two microphone input signals differ by digitally, the above table gives the angle away from center that the sound source is from</t>
+  </si>
+  <si>
+    <t>Rounded</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -450,7 +453,7 @@
     <col min="6" max="6" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -461,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>344</v>
       </c>
@@ -472,15 +475,18 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="E8">
         <v>-5</v>
       </c>
@@ -488,8 +494,12 @@
         <f t="shared" ref="F8:F22" si="0">ASIN($A$2*(E8/$E$2)/$C$2) * 180/PI()</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="e">
+        <f>90-F8</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="E9" s="1">
         <v>-4.55</v>
       </c>
@@ -497,8 +507,12 @@
         <f t="shared" si="0"/>
         <v>-85.100904228589059</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G22" si="1">90-F9</f>
+        <v>175.10090422858906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="E10" s="1">
         <v>-4.5</v>
       </c>
@@ -506,8 +520,15 @@
         <f t="shared" si="0"/>
         <v>-80.196594468688517</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>170.19659446868852</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="E11" s="2">
         <v>-4</v>
       </c>
@@ -515,8 +536,15 @@
         <f t="shared" si="0"/>
         <v>-61.152755038730966</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>151.15275503873096</v>
+      </c>
+      <c r="H11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="E12" s="2">
         <v>-3</v>
       </c>
@@ -524,8 +552,15 @@
         <f t="shared" si="0"/>
         <v>-41.06629612512365</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>131.06629612512364</v>
+      </c>
+      <c r="H12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="E13" s="2">
         <v>-2</v>
       </c>
@@ -533,8 +568,15 @@
         <f t="shared" si="0"/>
         <v>-25.973447240265767</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>115.97344724026577</v>
+      </c>
+      <c r="H13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="E14" s="2">
         <v>-1</v>
       </c>
@@ -542,8 +584,15 @@
         <f t="shared" si="0"/>
         <v>-12.648971098739182</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>102.64897109873918</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="E15" s="2">
         <v>0</v>
       </c>
@@ -551,8 +600,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="E16" s="2">
         <v>1</v>
       </c>
@@ -560,8 +616,15 @@
         <f t="shared" si="0"/>
         <v>12.648971098739182</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>77.351028901260818</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="E17" s="2">
         <v>2</v>
       </c>
@@ -569,8 +632,15 @@
         <f t="shared" si="0"/>
         <v>25.973447240265767</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>64.02655275973423</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="E18" s="2">
         <v>3</v>
       </c>
@@ -578,8 +648,15 @@
         <f t="shared" si="0"/>
         <v>41.06629612512365</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>48.93370387487635</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="E19" s="2">
         <v>4</v>
       </c>
@@ -587,8 +664,15 @@
         <f t="shared" si="0"/>
         <v>61.15275503873098</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>28.84724496126902</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="E20" s="1">
         <v>4.5</v>
       </c>
@@ -596,8 +680,15 @@
         <f t="shared" si="0"/>
         <v>80.196594468688474</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>9.803405531311526</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="E21" s="1">
         <v>4.55</v>
       </c>
@@ -605,8 +696,12 @@
         <f t="shared" si="0"/>
         <v>85.100904228589158</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8990957714108418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="E22">
         <v>5</v>
       </c>
@@ -614,8 +709,12 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G22" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -625,7 +724,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -633,7 +732,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -641,7 +740,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -649,7 +748,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -657,7 +756,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -665,7 +764,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
